--- a/publication/web-root/cibmtr-reporting/StructureDefinition-cibmtr-medication-request.xlsx
+++ b/publication/web-root/cibmtr-reporting/StructureDefinition-cibmtr-medication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T11:11:22-05:00</t>
+    <t>2023-05-04T21:49:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2534,15 +2534,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2553,27 +2553,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="58.46875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="191.95703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.62109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="57.07421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="125.8203125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="131.0546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/publication/web-root/cibmtr-reporting/StructureDefinition-cibmtr-medication-request.xlsx
+++ b/publication/web-root/cibmtr-reporting/StructureDefinition-cibmtr-medication-request.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:49:21-05:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
